--- a/output_file_random.xlsx
+++ b/output_file_random.xlsx
@@ -443,70 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Charise Pearson</t>
+          <t>Stasia Mejia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mahalia Hansen</t>
+          <t>Margy Burnett</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Iluminada Rivers</t>
+          <t>Eryn Head</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ching Wheeler</t>
+          <t>Keith Rutledge</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lyle Leonard</t>
+          <t>Sina Newman</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fredrick English</t>
+          <t>Beatris Herrera</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Neoma Williamson</t>
+          <t>Jackqueline Wolfe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pasquale Boone</t>
+          <t>Milton Valencia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Piedad Hamilton</t>
+          <t>Dell Larson</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Raphael Henson</t>
+          <t>Clyde Mcfarland</t>
         </is>
       </c>
     </row>
